--- a/ScorpioFitsKeywords.xlsx
+++ b/ScorpioFitsKeywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/framos/Downloads/scorpioFitsSimulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067FEFEB-ACEB-2C43-BCD9-4D830A6505FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE06A1-837B-124B-A97E-776A243051C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37040" yWindow="1420" windowWidth="35840" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36860" yWindow="1300" windowWidth="35840" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sorted By Origin" sheetId="1" r:id="rId1"/>
@@ -3251,10 +3251,10 @@
   <dimension ref="A1:AH1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="O133" sqref="O133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8981,7 +8981,7 @@
         <v>25</v>
       </c>
       <c r="O132" s="16" t="s">
-        <v>854</v>
+        <v>57</v>
       </c>
       <c r="P132" s="16" t="s">
         <v>366</v>
